--- a/HorseAccounting/Files/Excel/Журнал случки.xlsx
+++ b/HorseAccounting/Files/Excel/Журнал случки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\HorseAccounting\HorseAccounting\Files\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22594438-CEE3-442E-9920-E706D5412035}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AFC223-4F45-4750-AC13-BC9AC15F3B79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,7 +133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -398,9 +398,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -408,6 +406,19 @@
         <color auto="1"/>
       </top>
       <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -416,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -435,40 +446,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -478,14 +477,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -825,152 +842,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:AI117"/>
+  <dimension ref="A1:AJ117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99:C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-    </row>
-    <row r="2" spans="1:35" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+    </row>
+    <row r="2" spans="1:36" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11">
+      <c r="E2" s="11">
         <v>1</v>
       </c>
-      <c r="E2" s="11">
+      <c r="F2" s="11">
         <v>2</v>
       </c>
-      <c r="F2" s="11">
+      <c r="G2" s="11">
         <v>3</v>
       </c>
-      <c r="G2" s="11">
+      <c r="H2" s="11">
         <v>4</v>
       </c>
-      <c r="H2" s="11">
+      <c r="I2" s="11">
         <v>5</v>
       </c>
-      <c r="I2" s="11">
+      <c r="J2" s="11">
         <v>6</v>
       </c>
-      <c r="J2" s="11">
+      <c r="K2" s="11">
         <v>7</v>
       </c>
-      <c r="K2" s="11">
+      <c r="L2" s="11">
         <v>8</v>
       </c>
-      <c r="L2" s="11">
+      <c r="M2" s="11">
         <v>9</v>
       </c>
-      <c r="M2" s="11">
+      <c r="N2" s="11">
         <v>10</v>
       </c>
-      <c r="N2" s="11">
+      <c r="O2" s="11">
         <v>11</v>
       </c>
-      <c r="O2" s="11">
+      <c r="P2" s="11">
         <v>12</v>
       </c>
-      <c r="P2" s="11">
+      <c r="Q2" s="11">
         <v>13</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="R2" s="11">
         <v>14</v>
       </c>
-      <c r="R2" s="11">
+      <c r="S2" s="11">
         <v>15</v>
       </c>
-      <c r="S2" s="11">
+      <c r="T2" s="11">
         <v>16</v>
       </c>
-      <c r="T2" s="11">
+      <c r="U2" s="11">
         <v>17</v>
       </c>
-      <c r="U2" s="11">
+      <c r="V2" s="11">
         <v>18</v>
       </c>
-      <c r="V2" s="11">
+      <c r="W2" s="11">
         <v>19</v>
       </c>
-      <c r="W2" s="11">
+      <c r="X2" s="11">
         <v>20</v>
       </c>
-      <c r="X2" s="11">
+      <c r="Y2" s="11">
         <v>21</v>
       </c>
-      <c r="Y2" s="11">
+      <c r="Z2" s="11">
         <v>22</v>
       </c>
-      <c r="Z2" s="11">
+      <c r="AA2" s="11">
         <v>23</v>
       </c>
-      <c r="AA2" s="11">
+      <c r="AB2" s="11">
         <v>24</v>
       </c>
-      <c r="AB2" s="11">
+      <c r="AC2" s="11">
         <v>25</v>
       </c>
-      <c r="AC2" s="11">
+      <c r="AD2" s="11">
         <v>26</v>
       </c>
-      <c r="AD2" s="11">
+      <c r="AE2" s="11">
         <v>27</v>
       </c>
-      <c r="AE2" s="11">
+      <c r="AF2" s="11">
         <v>28</v>
       </c>
-      <c r="AF2" s="11">
+      <c r="AG2" s="11">
         <v>29</v>
       </c>
-      <c r="AG2" s="11">
+      <c r="AH2" s="11">
         <v>30</v>
       </c>
-      <c r="AH2" s="11">
+      <c r="AI2" s="11">
         <v>31</v>
       </c>
-      <c r="AI2" s="12" t="s">
+      <c r="AJ2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1001,17 +1019,18 @@
       <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
       <c r="AH3" s="5"/>
-      <c r="AI3" s="6" t="s">
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1042,17 +1061,18 @@
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
-      <c r="AI4" s="2" t="s">
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="1" t="s">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1083,17 +1103,18 @@
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
-      <c r="AI5" s="2" t="s">
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="1" t="s">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1124,17 +1145,18 @@
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
-      <c r="AI6" s="2" t="s">
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="3" t="s">
+    <row r="7" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1165,19 +1187,20 @@
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
-      <c r="AI7" s="4" t="s">
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+    <row r="8" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -1208,17 +1231,18 @@
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
-      <c r="AI8" s="6" t="s">
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="1" t="s">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1249,17 +1273,18 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
-      <c r="AI9" s="2" t="s">
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="1" t="s">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1290,17 +1315,18 @@
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
-      <c r="AI10" s="2" t="s">
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="1" t="s">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1331,17 +1357,18 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
-      <c r="AI11" s="2" t="s">
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="3" t="s">
+    <row r="12" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1372,19 +1399,20 @@
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
-      <c r="AI12" s="4" t="s">
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+    <row r="13" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -1415,17 +1443,18 @@
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
       <c r="AH13" s="7"/>
-      <c r="AI13" s="6" t="s">
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="1" t="s">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1456,17 +1485,18 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
-      <c r="AI14" s="2" t="s">
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="1" t="s">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1497,17 +1527,18 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
-      <c r="AI15" s="2" t="s">
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="1" t="s">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1538,17 +1569,18 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
-      <c r="AI16" s="2" t="s">
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="3" t="s">
+    <row r="17" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1579,19 +1611,20 @@
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
-      <c r="AI17" s="4" t="s">
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+    <row r="18" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1622,17 +1655,18 @@
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
       <c r="AH18" s="7"/>
-      <c r="AI18" s="6" t="s">
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="1" t="s">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1663,17 +1697,18 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
-      <c r="AI19" s="2" t="s">
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="1" t="s">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1704,17 +1739,18 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
-      <c r="AI20" s="2" t="s">
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="1" t="s">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1745,17 +1781,18 @@
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
-      <c r="AI21" s="2" t="s">
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="3" t="s">
+    <row r="22" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="24"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1786,19 +1823,20 @@
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
-      <c r="AI22" s="4" t="s">
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+    <row r="23" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="7" t="s">
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -1829,17 +1867,18 @@
       <c r="AF23" s="7"/>
       <c r="AG23" s="7"/>
       <c r="AH23" s="7"/>
-      <c r="AI23" s="6" t="s">
+      <c r="AI23" s="7"/>
+      <c r="AJ23" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="1" t="s">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1870,17 +1909,18 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
-      <c r="AI24" s="2" t="s">
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="1" t="s">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1911,17 +1951,18 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
-      <c r="AI25" s="2" t="s">
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="1" t="s">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1952,17 +1993,18 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
-      <c r="AI26" s="2" t="s">
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="3" t="s">
+    <row r="27" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1993,19 +2035,20 @@
       <c r="AF27" s="3"/>
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
-      <c r="AI27" s="4" t="s">
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
+    <row r="28" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="7" t="s">
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -2036,17 +2079,18 @@
       <c r="AF28" s="7"/>
       <c r="AG28" s="7"/>
       <c r="AH28" s="7"/>
-      <c r="AI28" s="6" t="s">
+      <c r="AI28" s="7"/>
+      <c r="AJ28" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="1" t="s">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -2077,17 +2121,18 @@
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
-      <c r="AI29" s="2" t="s">
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="1" t="s">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -2118,17 +2163,18 @@
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
-      <c r="AI30" s="2" t="s">
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="1" t="s">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -2159,17 +2205,18 @@
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
-      <c r="AI31" s="2" t="s">
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="3" t="s">
+    <row r="32" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="21"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -2200,19 +2247,20 @@
       <c r="AF32" s="3"/>
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
-      <c r="AI32" s="4" t="s">
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+    <row r="33" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="7" t="s">
+      <c r="B33" s="30"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -2243,17 +2291,18 @@
       <c r="AF33" s="7"/>
       <c r="AG33" s="7"/>
       <c r="AH33" s="7"/>
-      <c r="AI33" s="6" t="s">
+      <c r="AI33" s="7"/>
+      <c r="AJ33" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="1" t="s">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A34" s="20"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2284,17 +2333,18 @@
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
-      <c r="AI34" s="2" t="s">
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="1" t="s">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A35" s="20"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2325,17 +2375,18 @@
       <c r="AF35" s="1"/>
       <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
-      <c r="AI35" s="2" t="s">
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="1" t="s">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A36" s="20"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -2366,17 +2417,18 @@
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
-      <c r="AI36" s="2" t="s">
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="3" t="s">
+    <row r="37" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="21"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -2407,19 +2459,20 @@
       <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
-      <c r="AI37" s="4" t="s">
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
+    <row r="38" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="7" t="s">
+      <c r="B38" s="30"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
@@ -2450,17 +2503,18 @@
       <c r="AF38" s="7"/>
       <c r="AG38" s="7"/>
       <c r="AH38" s="7"/>
-      <c r="AI38" s="6" t="s">
+      <c r="AI38" s="7"/>
+      <c r="AJ38" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="1" t="s">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A39" s="20"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -2491,17 +2545,18 @@
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
       <c r="AH39" s="1"/>
-      <c r="AI39" s="2" t="s">
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="1" t="s">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A40" s="20"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -2532,17 +2587,18 @@
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
       <c r="AH40" s="1"/>
-      <c r="AI40" s="2" t="s">
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="1" t="s">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A41" s="20"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -2573,17 +2629,18 @@
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
       <c r="AH41" s="1"/>
-      <c r="AI41" s="2" t="s">
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="30"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="3" t="s">
+    <row r="42" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="21"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -2614,19 +2671,20 @@
       <c r="AF42" s="3"/>
       <c r="AG42" s="3"/>
       <c r="AH42" s="3"/>
-      <c r="AI42" s="4" t="s">
+      <c r="AI42" s="3"/>
+      <c r="AJ42" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="26" t="s">
+    <row r="43" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="7" t="s">
+      <c r="B43" s="30"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
@@ -2657,17 +2715,18 @@
       <c r="AF43" s="7"/>
       <c r="AG43" s="7"/>
       <c r="AH43" s="7"/>
-      <c r="AI43" s="6" t="s">
+      <c r="AI43" s="7"/>
+      <c r="AJ43" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="1" t="s">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A44" s="23"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -2698,17 +2757,18 @@
       <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
       <c r="AH44" s="1"/>
-      <c r="AI44" s="2" t="s">
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="1" t="s">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A45" s="23"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -2739,17 +2799,18 @@
       <c r="AF45" s="1"/>
       <c r="AG45" s="1"/>
       <c r="AH45" s="1"/>
-      <c r="AI45" s="2" t="s">
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="1" t="s">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A46" s="23"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -2780,17 +2841,18 @@
       <c r="AF46" s="1"/>
       <c r="AG46" s="1"/>
       <c r="AH46" s="1"/>
-      <c r="AI46" s="2" t="s">
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="28"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="3" t="s">
+    <row r="47" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="24"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -2821,19 +2883,20 @@
       <c r="AF47" s="3"/>
       <c r="AG47" s="3"/>
       <c r="AH47" s="3"/>
-      <c r="AI47" s="4" t="s">
+      <c r="AI47" s="3"/>
+      <c r="AJ47" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
+    <row r="48" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="7" t="s">
+      <c r="B48" s="30"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
@@ -2864,17 +2927,18 @@
       <c r="AF48" s="7"/>
       <c r="AG48" s="7"/>
       <c r="AH48" s="7"/>
-      <c r="AI48" s="6" t="s">
+      <c r="AI48" s="7"/>
+      <c r="AJ48" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A49" s="27"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="1" t="s">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -2905,17 +2969,18 @@
       <c r="AF49" s="1"/>
       <c r="AG49" s="1"/>
       <c r="AH49" s="1"/>
-      <c r="AI49" s="2" t="s">
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="1" t="s">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A50" s="23"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -2946,17 +3011,18 @@
       <c r="AF50" s="1"/>
       <c r="AG50" s="1"/>
       <c r="AH50" s="1"/>
-      <c r="AI50" s="2" t="s">
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="1" t="s">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A51" s="23"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2987,17 +3053,18 @@
       <c r="AF51" s="1"/>
       <c r="AG51" s="1"/>
       <c r="AH51" s="1"/>
-      <c r="AI51" s="2" t="s">
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="28"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="3" t="s">
+    <row r="52" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="24"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -3028,19 +3095,20 @@
       <c r="AF52" s="3"/>
       <c r="AG52" s="3"/>
       <c r="AH52" s="3"/>
-      <c r="AI52" s="4" t="s">
+      <c r="AI52" s="3"/>
+      <c r="AJ52" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
+    <row r="53" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="7" t="s">
+      <c r="B53" s="30"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
@@ -3071,17 +3139,18 @@
       <c r="AF53" s="7"/>
       <c r="AG53" s="7"/>
       <c r="AH53" s="7"/>
-      <c r="AI53" s="6" t="s">
+      <c r="AI53" s="7"/>
+      <c r="AJ53" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="1" t="s">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A54" s="20"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -3112,17 +3181,18 @@
       <c r="AF54" s="1"/>
       <c r="AG54" s="1"/>
       <c r="AH54" s="1"/>
-      <c r="AI54" s="2" t="s">
+      <c r="AI54" s="1"/>
+      <c r="AJ54" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="1" t="s">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A55" s="20"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -3153,17 +3223,18 @@
       <c r="AF55" s="1"/>
       <c r="AG55" s="1"/>
       <c r="AH55" s="1"/>
-      <c r="AI55" s="2" t="s">
+      <c r="AI55" s="1"/>
+      <c r="AJ55" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="1" t="s">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A56" s="20"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -3194,17 +3265,18 @@
       <c r="AF56" s="1"/>
       <c r="AG56" s="1"/>
       <c r="AH56" s="1"/>
-      <c r="AI56" s="2" t="s">
+      <c r="AI56" s="1"/>
+      <c r="AJ56" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="30"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="3" t="s">
+    <row r="57" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="21"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -3235,19 +3307,20 @@
       <c r="AF57" s="3"/>
       <c r="AG57" s="3"/>
       <c r="AH57" s="3"/>
-      <c r="AI57" s="4" t="s">
+      <c r="AI57" s="3"/>
+      <c r="AJ57" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="31" t="s">
+    <row r="58" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="7" t="s">
+      <c r="B58" s="30"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
@@ -3278,17 +3351,18 @@
       <c r="AF58" s="7"/>
       <c r="AG58" s="7"/>
       <c r="AH58" s="7"/>
-      <c r="AI58" s="6" t="s">
+      <c r="AI58" s="7"/>
+      <c r="AJ58" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="1" t="s">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A59" s="20"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -3319,17 +3393,18 @@
       <c r="AF59" s="1"/>
       <c r="AG59" s="1"/>
       <c r="AH59" s="1"/>
-      <c r="AI59" s="2" t="s">
+      <c r="AI59" s="1"/>
+      <c r="AJ59" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="1" t="s">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A60" s="20"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -3360,17 +3435,18 @@
       <c r="AF60" s="1"/>
       <c r="AG60" s="1"/>
       <c r="AH60" s="1"/>
-      <c r="AI60" s="2" t="s">
+      <c r="AI60" s="1"/>
+      <c r="AJ60" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A61" s="29"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="1" t="s">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A61" s="20"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -3401,17 +3477,18 @@
       <c r="AF61" s="1"/>
       <c r="AG61" s="1"/>
       <c r="AH61" s="1"/>
-      <c r="AI61" s="2" t="s">
+      <c r="AI61" s="1"/>
+      <c r="AJ61" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="30"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="3" t="s">
+    <row r="62" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="21"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -3442,19 +3519,20 @@
       <c r="AF62" s="3"/>
       <c r="AG62" s="3"/>
       <c r="AH62" s="3"/>
-      <c r="AI62" s="4" t="s">
+      <c r="AI62" s="3"/>
+      <c r="AJ62" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="31" t="s">
+    <row r="63" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B63" s="15"/>
-      <c r="C63" s="10" t="s">
+      <c r="B63" s="30"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
@@ -3485,17 +3563,18 @@
       <c r="AF63" s="7"/>
       <c r="AG63" s="7"/>
       <c r="AH63" s="7"/>
-      <c r="AI63" s="6" t="s">
+      <c r="AI63" s="7"/>
+      <c r="AJ63" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A64" s="29"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="8" t="s">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A64" s="20"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -3526,17 +3605,18 @@
       <c r="AF64" s="1"/>
       <c r="AG64" s="1"/>
       <c r="AH64" s="1"/>
-      <c r="AI64" s="2" t="s">
+      <c r="AI64" s="1"/>
+      <c r="AJ64" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A65" s="29"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="8" t="s">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A65" s="20"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -3567,17 +3647,18 @@
       <c r="AF65" s="1"/>
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
-      <c r="AI65" s="2" t="s">
+      <c r="AI65" s="1"/>
+      <c r="AJ65" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A66" s="29"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="8" t="s">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A66" s="20"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -3608,17 +3689,18 @@
       <c r="AF66" s="1"/>
       <c r="AG66" s="1"/>
       <c r="AH66" s="1"/>
-      <c r="AI66" s="2" t="s">
+      <c r="AI66" s="1"/>
+      <c r="AJ66" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="30"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="9" t="s">
+    <row r="67" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="21"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -3649,19 +3731,20 @@
       <c r="AF67" s="3"/>
       <c r="AG67" s="3"/>
       <c r="AH67" s="3"/>
-      <c r="AI67" s="4" t="s">
+      <c r="AI67" s="3"/>
+      <c r="AJ67" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="26" t="s">
+    <row r="68" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B68" s="15"/>
-      <c r="C68" s="5" t="s">
+      <c r="B68" s="30"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
@@ -3692,17 +3775,18 @@
       <c r="AF68" s="5"/>
       <c r="AG68" s="5"/>
       <c r="AH68" s="5"/>
-      <c r="AI68" s="6" t="s">
+      <c r="AI68" s="5"/>
+      <c r="AJ68" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A69" s="27"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="1" t="s">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A69" s="23"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -3733,17 +3817,18 @@
       <c r="AF69" s="1"/>
       <c r="AG69" s="1"/>
       <c r="AH69" s="1"/>
-      <c r="AI69" s="2" t="s">
+      <c r="AI69" s="1"/>
+      <c r="AJ69" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A70" s="27"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="1" t="s">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A70" s="23"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -3774,17 +3859,18 @@
       <c r="AF70" s="1"/>
       <c r="AG70" s="1"/>
       <c r="AH70" s="1"/>
-      <c r="AI70" s="2" t="s">
+      <c r="AI70" s="1"/>
+      <c r="AJ70" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A71" s="27"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="1" t="s">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A71" s="23"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -3815,17 +3901,18 @@
       <c r="AF71" s="1"/>
       <c r="AG71" s="1"/>
       <c r="AH71" s="1"/>
-      <c r="AI71" s="2" t="s">
+      <c r="AI71" s="1"/>
+      <c r="AJ71" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="28"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="3" t="s">
+    <row r="72" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="24"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -3856,19 +3943,20 @@
       <c r="AF72" s="3"/>
       <c r="AG72" s="3"/>
       <c r="AH72" s="3"/>
-      <c r="AI72" s="4" t="s">
+      <c r="AI72" s="3"/>
+      <c r="AJ72" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="29" t="s">
+    <row r="73" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B73" s="15"/>
-      <c r="C73" s="7" t="s">
+      <c r="B73" s="30"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
@@ -3899,17 +3987,18 @@
       <c r="AF73" s="7"/>
       <c r="AG73" s="7"/>
       <c r="AH73" s="7"/>
-      <c r="AI73" s="6" t="s">
+      <c r="AI73" s="7"/>
+      <c r="AJ73" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A74" s="29"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="1" t="s">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A74" s="20"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -3940,17 +4029,18 @@
       <c r="AF74" s="1"/>
       <c r="AG74" s="1"/>
       <c r="AH74" s="1"/>
-      <c r="AI74" s="2" t="s">
+      <c r="AI74" s="1"/>
+      <c r="AJ74" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A75" s="29"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="1" t="s">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A75" s="20"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -3981,17 +4071,18 @@
       <c r="AF75" s="1"/>
       <c r="AG75" s="1"/>
       <c r="AH75" s="1"/>
-      <c r="AI75" s="2" t="s">
+      <c r="AI75" s="1"/>
+      <c r="AJ75" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A76" s="29"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="1" t="s">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A76" s="20"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -4022,17 +4113,18 @@
       <c r="AF76" s="1"/>
       <c r="AG76" s="1"/>
       <c r="AH76" s="1"/>
-      <c r="AI76" s="2" t="s">
+      <c r="AI76" s="1"/>
+      <c r="AJ76" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="30"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="3" t="s">
+    <row r="77" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="21"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -4063,19 +4155,20 @@
       <c r="AF77" s="3"/>
       <c r="AG77" s="3"/>
       <c r="AH77" s="3"/>
-      <c r="AI77" s="4" t="s">
+      <c r="AI77" s="3"/>
+      <c r="AJ77" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="31" t="s">
+    <row r="78" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B78" s="15"/>
-      <c r="C78" s="7" t="s">
+      <c r="B78" s="30"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
@@ -4106,17 +4199,18 @@
       <c r="AF78" s="7"/>
       <c r="AG78" s="7"/>
       <c r="AH78" s="7"/>
-      <c r="AI78" s="6" t="s">
+      <c r="AI78" s="7"/>
+      <c r="AJ78" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A79" s="29"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="1" t="s">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A79" s="20"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -4147,17 +4241,18 @@
       <c r="AF79" s="1"/>
       <c r="AG79" s="1"/>
       <c r="AH79" s="1"/>
-      <c r="AI79" s="2" t="s">
+      <c r="AI79" s="1"/>
+      <c r="AJ79" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A80" s="29"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="1" t="s">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A80" s="20"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -4188,17 +4283,18 @@
       <c r="AF80" s="1"/>
       <c r="AG80" s="1"/>
       <c r="AH80" s="1"/>
-      <c r="AI80" s="2" t="s">
+      <c r="AI80" s="1"/>
+      <c r="AJ80" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A81" s="29"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="1" t="s">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A81" s="20"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -4229,17 +4325,18 @@
       <c r="AF81" s="1"/>
       <c r="AG81" s="1"/>
       <c r="AH81" s="1"/>
-      <c r="AI81" s="2" t="s">
+      <c r="AI81" s="1"/>
+      <c r="AJ81" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="30"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="3" t="s">
+    <row r="82" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="21"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -4270,19 +4367,20 @@
       <c r="AF82" s="3"/>
       <c r="AG82" s="3"/>
       <c r="AH82" s="3"/>
-      <c r="AI82" s="4" t="s">
+      <c r="AI82" s="3"/>
+      <c r="AJ82" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="26" t="s">
+    <row r="83" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B83" s="15"/>
-      <c r="C83" s="7" t="s">
+      <c r="B83" s="30"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
@@ -4313,17 +4411,18 @@
       <c r="AF83" s="7"/>
       <c r="AG83" s="7"/>
       <c r="AH83" s="7"/>
-      <c r="AI83" s="6" t="s">
+      <c r="AI83" s="7"/>
+      <c r="AJ83" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A84" s="27"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="1" t="s">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A84" s="23"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -4354,17 +4453,18 @@
       <c r="AF84" s="1"/>
       <c r="AG84" s="1"/>
       <c r="AH84" s="1"/>
-      <c r="AI84" s="2" t="s">
+      <c r="AI84" s="1"/>
+      <c r="AJ84" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A85" s="27"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="1" t="s">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A85" s="23"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -4395,17 +4495,18 @@
       <c r="AF85" s="1"/>
       <c r="AG85" s="1"/>
       <c r="AH85" s="1"/>
-      <c r="AI85" s="2" t="s">
+      <c r="AI85" s="1"/>
+      <c r="AJ85" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A86" s="27"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="1" t="s">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A86" s="23"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -4436,17 +4537,18 @@
       <c r="AF86" s="1"/>
       <c r="AG86" s="1"/>
       <c r="AH86" s="1"/>
-      <c r="AI86" s="2" t="s">
+      <c r="AI86" s="1"/>
+      <c r="AJ86" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="28"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="3" t="s">
+    <row r="87" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="24"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
@@ -4477,19 +4579,20 @@
       <c r="AF87" s="3"/>
       <c r="AG87" s="3"/>
       <c r="AH87" s="3"/>
-      <c r="AI87" s="4" t="s">
+      <c r="AI87" s="3"/>
+      <c r="AJ87" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="29" t="s">
+    <row r="88" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B88" s="15"/>
-      <c r="C88" s="7" t="s">
+      <c r="B88" s="30"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
@@ -4520,17 +4623,18 @@
       <c r="AF88" s="7"/>
       <c r="AG88" s="7"/>
       <c r="AH88" s="7"/>
-      <c r="AI88" s="6" t="s">
+      <c r="AI88" s="7"/>
+      <c r="AJ88" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A89" s="29"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="1" t="s">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A89" s="20"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -4561,17 +4665,18 @@
       <c r="AF89" s="1"/>
       <c r="AG89" s="1"/>
       <c r="AH89" s="1"/>
-      <c r="AI89" s="2" t="s">
+      <c r="AI89" s="1"/>
+      <c r="AJ89" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A90" s="29"/>
-      <c r="B90" s="16"/>
-      <c r="C90" s="1" t="s">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A90" s="20"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -4602,17 +4707,18 @@
       <c r="AF90" s="1"/>
       <c r="AG90" s="1"/>
       <c r="AH90" s="1"/>
-      <c r="AI90" s="2" t="s">
+      <c r="AI90" s="1"/>
+      <c r="AJ90" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A91" s="29"/>
-      <c r="B91" s="16"/>
-      <c r="C91" s="1" t="s">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A91" s="20"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -4643,17 +4749,18 @@
       <c r="AF91" s="1"/>
       <c r="AG91" s="1"/>
       <c r="AH91" s="1"/>
-      <c r="AI91" s="2" t="s">
+      <c r="AI91" s="1"/>
+      <c r="AJ91" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="30"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="3" t="s">
+    <row r="92" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="21"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
@@ -4684,19 +4791,20 @@
       <c r="AF92" s="3"/>
       <c r="AG92" s="3"/>
       <c r="AH92" s="3"/>
-      <c r="AI92" s="4" t="s">
+      <c r="AI92" s="3"/>
+      <c r="AJ92" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="29" t="s">
+    <row r="93" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B93" s="15"/>
-      <c r="C93" s="7" t="s">
+      <c r="B93" s="30"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
@@ -4727,17 +4835,18 @@
       <c r="AF93" s="7"/>
       <c r="AG93" s="7"/>
       <c r="AH93" s="7"/>
-      <c r="AI93" s="6" t="s">
+      <c r="AI93" s="7"/>
+      <c r="AJ93" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A94" s="29"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="1" t="s">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A94" s="20"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -4768,17 +4877,18 @@
       <c r="AF94" s="1"/>
       <c r="AG94" s="1"/>
       <c r="AH94" s="1"/>
-      <c r="AI94" s="2" t="s">
+      <c r="AI94" s="1"/>
+      <c r="AJ94" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A95" s="29"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="1" t="s">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A95" s="20"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -4809,17 +4919,18 @@
       <c r="AF95" s="1"/>
       <c r="AG95" s="1"/>
       <c r="AH95" s="1"/>
-      <c r="AI95" s="2" t="s">
+      <c r="AI95" s="1"/>
+      <c r="AJ95" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A96" s="29"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="1" t="s">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A96" s="20"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -4850,17 +4961,18 @@
       <c r="AF96" s="1"/>
       <c r="AG96" s="1"/>
       <c r="AH96" s="1"/>
-      <c r="AI96" s="2" t="s">
+      <c r="AI96" s="1"/>
+      <c r="AJ96" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="30"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="3" t="s">
+    <row r="97" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="21"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
@@ -4891,19 +5003,20 @@
       <c r="AF97" s="3"/>
       <c r="AG97" s="3"/>
       <c r="AH97" s="3"/>
-      <c r="AI97" s="4" t="s">
+      <c r="AI97" s="3"/>
+      <c r="AJ97" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="26" t="s">
+    <row r="98" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B98" s="15"/>
-      <c r="C98" s="7" t="s">
+      <c r="B98" s="30"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
@@ -4934,17 +5047,18 @@
       <c r="AF98" s="7"/>
       <c r="AG98" s="7"/>
       <c r="AH98" s="7"/>
-      <c r="AI98" s="6" t="s">
+      <c r="AI98" s="7"/>
+      <c r="AJ98" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A99" s="27"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="1" t="s">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A99" s="23"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -4975,17 +5089,18 @@
       <c r="AF99" s="1"/>
       <c r="AG99" s="1"/>
       <c r="AH99" s="1"/>
-      <c r="AI99" s="2" t="s">
+      <c r="AI99" s="1"/>
+      <c r="AJ99" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A100" s="27"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="1" t="s">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A100" s="23"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
@@ -5016,17 +5131,18 @@
       <c r="AF100" s="1"/>
       <c r="AG100" s="1"/>
       <c r="AH100" s="1"/>
-      <c r="AI100" s="2" t="s">
+      <c r="AI100" s="1"/>
+      <c r="AJ100" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A101" s="27"/>
-      <c r="B101" s="16"/>
-      <c r="C101" s="1" t="s">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A101" s="23"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
@@ -5057,17 +5173,18 @@
       <c r="AF101" s="1"/>
       <c r="AG101" s="1"/>
       <c r="AH101" s="1"/>
-      <c r="AI101" s="2" t="s">
+      <c r="AI101" s="1"/>
+      <c r="AJ101" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="28"/>
-      <c r="B102" s="17"/>
-      <c r="C102" s="3" t="s">
+    <row r="102" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="24"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
@@ -5098,577 +5215,596 @@
       <c r="AF102" s="3"/>
       <c r="AG102" s="3"/>
       <c r="AH102" s="3"/>
-      <c r="AI102" s="4" t="s">
+      <c r="AI102" s="3"/>
+      <c r="AJ102" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="23"/>
-      <c r="B103" s="24"/>
-      <c r="C103" s="25"/>
-      <c r="D103" s="25"/>
-      <c r="E103" s="25"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="25"/>
-      <c r="H103" s="25"/>
-      <c r="I103" s="25"/>
-      <c r="J103" s="25"/>
-      <c r="K103" s="25"/>
-      <c r="L103" s="25"/>
-      <c r="M103" s="25"/>
-      <c r="N103" s="25"/>
-      <c r="O103" s="25"/>
-      <c r="P103" s="25"/>
-      <c r="Q103" s="25"/>
-      <c r="R103" s="25"/>
-      <c r="S103" s="25"/>
-      <c r="T103" s="25"/>
-      <c r="U103" s="25"/>
-      <c r="V103" s="25"/>
-      <c r="W103" s="25"/>
-      <c r="X103" s="25"/>
-      <c r="Y103" s="25"/>
-      <c r="Z103" s="25"/>
-      <c r="AA103" s="25"/>
-      <c r="AB103" s="25"/>
-      <c r="AC103" s="25"/>
-      <c r="AD103" s="25"/>
-      <c r="AE103" s="25"/>
-      <c r="AF103" s="25"/>
-      <c r="AG103" s="25"/>
-      <c r="AH103" s="25"/>
-      <c r="AI103" s="25"/>
-    </row>
-    <row r="104" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A104" s="23"/>
-      <c r="B104" s="24"/>
-      <c r="C104" s="25"/>
-      <c r="D104" s="25"/>
-      <c r="E104" s="25"/>
-      <c r="F104" s="25"/>
-      <c r="G104" s="25"/>
-      <c r="H104" s="25"/>
-      <c r="I104" s="25"/>
-      <c r="J104" s="25"/>
-      <c r="K104" s="25"/>
-      <c r="L104" s="25"/>
-      <c r="M104" s="25"/>
-      <c r="N104" s="25"/>
-      <c r="O104" s="25"/>
-      <c r="P104" s="25"/>
-      <c r="Q104" s="25"/>
-      <c r="R104" s="25"/>
-      <c r="S104" s="25"/>
-      <c r="T104" s="25"/>
-      <c r="U104" s="25"/>
-      <c r="V104" s="25"/>
-      <c r="W104" s="25"/>
-      <c r="X104" s="25"/>
-      <c r="Y104" s="25"/>
-      <c r="Z104" s="25"/>
-      <c r="AA104" s="25"/>
-      <c r="AB104" s="25"/>
-      <c r="AC104" s="25"/>
-      <c r="AD104" s="25"/>
-      <c r="AE104" s="25"/>
-      <c r="AF104" s="25"/>
-      <c r="AG104" s="25"/>
-      <c r="AH104" s="25"/>
-      <c r="AI104" s="25"/>
-    </row>
-    <row r="105" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A105" s="23"/>
-      <c r="B105" s="24"/>
-      <c r="C105" s="25"/>
-      <c r="D105" s="25"/>
-      <c r="E105" s="25"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="25"/>
-      <c r="H105" s="25"/>
-      <c r="I105" s="25"/>
-      <c r="J105" s="25"/>
-      <c r="K105" s="25"/>
-      <c r="L105" s="25"/>
-      <c r="M105" s="25"/>
-      <c r="N105" s="25"/>
-      <c r="O105" s="25"/>
-      <c r="P105" s="25"/>
-      <c r="Q105" s="25"/>
-      <c r="R105" s="25"/>
-      <c r="S105" s="25"/>
-      <c r="T105" s="25"/>
-      <c r="U105" s="25"/>
-      <c r="V105" s="25"/>
-      <c r="W105" s="25"/>
-      <c r="X105" s="25"/>
-      <c r="Y105" s="25"/>
-      <c r="Z105" s="25"/>
-      <c r="AA105" s="25"/>
-      <c r="AB105" s="25"/>
-      <c r="AC105" s="25"/>
-      <c r="AD105" s="25"/>
-      <c r="AE105" s="25"/>
-      <c r="AF105" s="25"/>
-      <c r="AG105" s="25"/>
-      <c r="AH105" s="25"/>
-      <c r="AI105" s="25"/>
-    </row>
-    <row r="106" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A106" s="23"/>
-      <c r="B106" s="24"/>
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
-      <c r="E106" s="25"/>
-      <c r="F106" s="25"/>
-      <c r="G106" s="25"/>
-      <c r="H106" s="25"/>
-      <c r="I106" s="25"/>
-      <c r="J106" s="25"/>
-      <c r="K106" s="25"/>
-      <c r="L106" s="25"/>
-      <c r="M106" s="25"/>
-      <c r="N106" s="25"/>
-      <c r="O106" s="25"/>
-      <c r="P106" s="25"/>
-      <c r="Q106" s="25"/>
-      <c r="R106" s="25"/>
-      <c r="S106" s="25"/>
-      <c r="T106" s="25"/>
-      <c r="U106" s="25"/>
-      <c r="V106" s="25"/>
-      <c r="W106" s="25"/>
-      <c r="X106" s="25"/>
-      <c r="Y106" s="25"/>
-      <c r="Z106" s="25"/>
-      <c r="AA106" s="25"/>
-      <c r="AB106" s="25"/>
-      <c r="AC106" s="25"/>
-      <c r="AD106" s="25"/>
-      <c r="AE106" s="25"/>
-      <c r="AF106" s="25"/>
-      <c r="AG106" s="25"/>
-      <c r="AH106" s="25"/>
-      <c r="AI106" s="25"/>
-    </row>
-    <row r="107" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A107" s="23"/>
-      <c r="B107" s="24"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
-      <c r="E107" s="25"/>
-      <c r="F107" s="25"/>
-      <c r="G107" s="25"/>
-      <c r="H107" s="25"/>
-      <c r="I107" s="25"/>
-      <c r="J107" s="25"/>
-      <c r="K107" s="25"/>
-      <c r="L107" s="25"/>
-      <c r="M107" s="25"/>
-      <c r="N107" s="25"/>
-      <c r="O107" s="25"/>
-      <c r="P107" s="25"/>
-      <c r="Q107" s="25"/>
-      <c r="R107" s="25"/>
-      <c r="S107" s="25"/>
-      <c r="T107" s="25"/>
-      <c r="U107" s="25"/>
-      <c r="V107" s="25"/>
-      <c r="W107" s="25"/>
-      <c r="X107" s="25"/>
-      <c r="Y107" s="25"/>
-      <c r="Z107" s="25"/>
-      <c r="AA107" s="25"/>
-      <c r="AB107" s="25"/>
-      <c r="AC107" s="25"/>
-      <c r="AD107" s="25"/>
-      <c r="AE107" s="25"/>
-      <c r="AF107" s="25"/>
-      <c r="AG107" s="25"/>
-      <c r="AH107" s="25"/>
-      <c r="AI107" s="25"/>
-    </row>
-    <row r="108" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A108" s="23"/>
-      <c r="B108" s="24"/>
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
-      <c r="E108" s="25"/>
-      <c r="F108" s="25"/>
-      <c r="G108" s="25"/>
-      <c r="H108" s="25"/>
-      <c r="I108" s="25"/>
-      <c r="J108" s="25"/>
-      <c r="K108" s="25"/>
-      <c r="L108" s="25"/>
-      <c r="M108" s="25"/>
-      <c r="N108" s="25"/>
-      <c r="O108" s="25"/>
-      <c r="P108" s="25"/>
-      <c r="Q108" s="25"/>
-      <c r="R108" s="25"/>
-      <c r="S108" s="25"/>
-      <c r="T108" s="25"/>
-      <c r="U108" s="25"/>
-      <c r="V108" s="25"/>
-      <c r="W108" s="25"/>
-      <c r="X108" s="25"/>
-      <c r="Y108" s="25"/>
-      <c r="Z108" s="25"/>
-      <c r="AA108" s="25"/>
-      <c r="AB108" s="25"/>
-      <c r="AC108" s="25"/>
-      <c r="AD108" s="25"/>
-      <c r="AE108" s="25"/>
-      <c r="AF108" s="25"/>
-      <c r="AG108" s="25"/>
-      <c r="AH108" s="25"/>
-      <c r="AI108" s="25"/>
-    </row>
-    <row r="109" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A109" s="23"/>
-      <c r="B109" s="24"/>
-      <c r="C109" s="25"/>
-      <c r="D109" s="25"/>
-      <c r="E109" s="25"/>
-      <c r="F109" s="25"/>
-      <c r="G109" s="25"/>
-      <c r="H109" s="25"/>
-      <c r="I109" s="25"/>
-      <c r="J109" s="25"/>
-      <c r="K109" s="25"/>
-      <c r="L109" s="25"/>
-      <c r="M109" s="25"/>
-      <c r="N109" s="25"/>
-      <c r="O109" s="25"/>
-      <c r="P109" s="25"/>
-      <c r="Q109" s="25"/>
-      <c r="R109" s="25"/>
-      <c r="S109" s="25"/>
-      <c r="T109" s="25"/>
-      <c r="U109" s="25"/>
-      <c r="V109" s="25"/>
-      <c r="W109" s="25"/>
-      <c r="X109" s="25"/>
-      <c r="Y109" s="25"/>
-      <c r="Z109" s="25"/>
-      <c r="AA109" s="25"/>
-      <c r="AB109" s="25"/>
-      <c r="AC109" s="25"/>
-      <c r="AD109" s="25"/>
-      <c r="AE109" s="25"/>
-      <c r="AF109" s="25"/>
-      <c r="AG109" s="25"/>
-      <c r="AH109" s="25"/>
-      <c r="AI109" s="25"/>
-    </row>
-    <row r="110" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A110" s="23"/>
-      <c r="B110" s="24"/>
-      <c r="C110" s="25"/>
-      <c r="D110" s="25"/>
-      <c r="E110" s="25"/>
-      <c r="F110" s="25"/>
-      <c r="G110" s="25"/>
-      <c r="H110" s="25"/>
-      <c r="I110" s="25"/>
-      <c r="J110" s="25"/>
-      <c r="K110" s="25"/>
-      <c r="L110" s="25"/>
-      <c r="M110" s="25"/>
-      <c r="N110" s="25"/>
-      <c r="O110" s="25"/>
-      <c r="P110" s="25"/>
-      <c r="Q110" s="25"/>
-      <c r="R110" s="25"/>
-      <c r="S110" s="25"/>
-      <c r="T110" s="25"/>
-      <c r="U110" s="25"/>
-      <c r="V110" s="25"/>
-      <c r="W110" s="25"/>
-      <c r="X110" s="25"/>
-      <c r="Y110" s="25"/>
-      <c r="Z110" s="25"/>
-      <c r="AA110" s="25"/>
-      <c r="AB110" s="25"/>
-      <c r="AC110" s="25"/>
-      <c r="AD110" s="25"/>
-      <c r="AE110" s="25"/>
-      <c r="AF110" s="25"/>
-      <c r="AG110" s="25"/>
-      <c r="AH110" s="25"/>
-      <c r="AI110" s="25"/>
-    </row>
-    <row r="111" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A111" s="23"/>
-      <c r="B111" s="24"/>
-      <c r="C111" s="25"/>
-      <c r="D111" s="25"/>
-      <c r="E111" s="25"/>
-      <c r="F111" s="25"/>
-      <c r="G111" s="25"/>
-      <c r="H111" s="25"/>
-      <c r="I111" s="25"/>
-      <c r="J111" s="25"/>
-      <c r="K111" s="25"/>
-      <c r="L111" s="25"/>
-      <c r="M111" s="25"/>
-      <c r="N111" s="25"/>
-      <c r="O111" s="25"/>
-      <c r="P111" s="25"/>
-      <c r="Q111" s="25"/>
-      <c r="R111" s="25"/>
-      <c r="S111" s="25"/>
-      <c r="T111" s="25"/>
-      <c r="U111" s="25"/>
-      <c r="V111" s="25"/>
-      <c r="W111" s="25"/>
-      <c r="X111" s="25"/>
-      <c r="Y111" s="25"/>
-      <c r="Z111" s="25"/>
-      <c r="AA111" s="25"/>
-      <c r="AB111" s="25"/>
-      <c r="AC111" s="25"/>
-      <c r="AD111" s="25"/>
-      <c r="AE111" s="25"/>
-      <c r="AF111" s="25"/>
-      <c r="AG111" s="25"/>
-      <c r="AH111" s="25"/>
-      <c r="AI111" s="25"/>
-    </row>
-    <row r="112" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A112" s="23"/>
-      <c r="B112" s="24"/>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-      <c r="J112" s="25"/>
-      <c r="K112" s="25"/>
-      <c r="L112" s="25"/>
-      <c r="M112" s="25"/>
-      <c r="N112" s="25"/>
-      <c r="O112" s="25"/>
-      <c r="P112" s="25"/>
-      <c r="Q112" s="25"/>
-      <c r="R112" s="25"/>
-      <c r="S112" s="25"/>
-      <c r="T112" s="25"/>
-      <c r="U112" s="25"/>
-      <c r="V112" s="25"/>
-      <c r="W112" s="25"/>
-      <c r="X112" s="25"/>
-      <c r="Y112" s="25"/>
-      <c r="Z112" s="25"/>
-      <c r="AA112" s="25"/>
-      <c r="AB112" s="25"/>
-      <c r="AC112" s="25"/>
-      <c r="AD112" s="25"/>
-      <c r="AE112" s="25"/>
-      <c r="AF112" s="25"/>
-      <c r="AG112" s="25"/>
-      <c r="AH112" s="25"/>
-      <c r="AI112" s="25"/>
+    <row r="103" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="25"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="17"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="17"/>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
+      <c r="R103" s="17"/>
+      <c r="S103" s="17"/>
+      <c r="T103" s="17"/>
+      <c r="U103" s="17"/>
+      <c r="V103" s="17"/>
+      <c r="W103" s="17"/>
+      <c r="X103" s="17"/>
+      <c r="Y103" s="17"/>
+      <c r="Z103" s="17"/>
+      <c r="AA103" s="17"/>
+      <c r="AB103" s="17"/>
+      <c r="AC103" s="17"/>
+      <c r="AD103" s="17"/>
+      <c r="AE103" s="17"/>
+      <c r="AF103" s="17"/>
+      <c r="AG103" s="17"/>
+      <c r="AH103" s="17"/>
+      <c r="AI103" s="17"/>
+    </row>
+    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A104" s="25"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="17"/>
+      <c r="J104" s="17"/>
+      <c r="K104" s="17"/>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
+      <c r="R104" s="17"/>
+      <c r="S104" s="17"/>
+      <c r="T104" s="17"/>
+      <c r="U104" s="17"/>
+      <c r="V104" s="17"/>
+      <c r="W104" s="17"/>
+      <c r="X104" s="17"/>
+      <c r="Y104" s="17"/>
+      <c r="Z104" s="17"/>
+      <c r="AA104" s="17"/>
+      <c r="AB104" s="17"/>
+      <c r="AC104" s="17"/>
+      <c r="AD104" s="17"/>
+      <c r="AE104" s="17"/>
+      <c r="AF104" s="17"/>
+      <c r="AG104" s="17"/>
+      <c r="AH104" s="17"/>
+      <c r="AI104" s="17"/>
+    </row>
+    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A105" s="25"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="17"/>
+      <c r="J105" s="17"/>
+      <c r="K105" s="17"/>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
+      <c r="R105" s="17"/>
+      <c r="S105" s="17"/>
+      <c r="T105" s="17"/>
+      <c r="U105" s="17"/>
+      <c r="V105" s="17"/>
+      <c r="W105" s="17"/>
+      <c r="X105" s="17"/>
+      <c r="Y105" s="17"/>
+      <c r="Z105" s="17"/>
+      <c r="AA105" s="17"/>
+      <c r="AB105" s="17"/>
+      <c r="AC105" s="17"/>
+      <c r="AD105" s="17"/>
+      <c r="AE105" s="17"/>
+      <c r="AF105" s="17"/>
+      <c r="AG105" s="17"/>
+      <c r="AH105" s="17"/>
+      <c r="AI105" s="17"/>
+    </row>
+    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A106" s="25"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="17"/>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
+      <c r="R106" s="17"/>
+      <c r="S106" s="17"/>
+      <c r="T106" s="17"/>
+      <c r="U106" s="17"/>
+      <c r="V106" s="17"/>
+      <c r="W106" s="17"/>
+      <c r="X106" s="17"/>
+      <c r="Y106" s="17"/>
+      <c r="Z106" s="17"/>
+      <c r="AA106" s="17"/>
+      <c r="AB106" s="17"/>
+      <c r="AC106" s="17"/>
+      <c r="AD106" s="17"/>
+      <c r="AE106" s="17"/>
+      <c r="AF106" s="17"/>
+      <c r="AG106" s="17"/>
+      <c r="AH106" s="17"/>
+      <c r="AI106" s="17"/>
+    </row>
+    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A107" s="25"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="17"/>
+      <c r="J107" s="17"/>
+      <c r="K107" s="17"/>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
+      <c r="R107" s="17"/>
+      <c r="S107" s="17"/>
+      <c r="T107" s="17"/>
+      <c r="U107" s="17"/>
+      <c r="V107" s="17"/>
+      <c r="W107" s="17"/>
+      <c r="X107" s="17"/>
+      <c r="Y107" s="17"/>
+      <c r="Z107" s="17"/>
+      <c r="AA107" s="17"/>
+      <c r="AB107" s="17"/>
+      <c r="AC107" s="17"/>
+      <c r="AD107" s="17"/>
+      <c r="AE107" s="17"/>
+      <c r="AF107" s="17"/>
+      <c r="AG107" s="17"/>
+      <c r="AH107" s="17"/>
+      <c r="AI107" s="17"/>
+    </row>
+    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A108" s="25"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
+      <c r="R108" s="17"/>
+      <c r="S108" s="17"/>
+      <c r="T108" s="17"/>
+      <c r="U108" s="17"/>
+      <c r="V108" s="17"/>
+      <c r="W108" s="17"/>
+      <c r="X108" s="17"/>
+      <c r="Y108" s="17"/>
+      <c r="Z108" s="17"/>
+      <c r="AA108" s="17"/>
+      <c r="AB108" s="17"/>
+      <c r="AC108" s="17"/>
+      <c r="AD108" s="17"/>
+      <c r="AE108" s="17"/>
+      <c r="AF108" s="17"/>
+      <c r="AG108" s="17"/>
+      <c r="AH108" s="17"/>
+      <c r="AI108" s="17"/>
+    </row>
+    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A109" s="25"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="17"/>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
+      <c r="R109" s="17"/>
+      <c r="S109" s="17"/>
+      <c r="T109" s="17"/>
+      <c r="U109" s="17"/>
+      <c r="V109" s="17"/>
+      <c r="W109" s="17"/>
+      <c r="X109" s="17"/>
+      <c r="Y109" s="17"/>
+      <c r="Z109" s="17"/>
+      <c r="AA109" s="17"/>
+      <c r="AB109" s="17"/>
+      <c r="AC109" s="17"/>
+      <c r="AD109" s="17"/>
+      <c r="AE109" s="17"/>
+      <c r="AF109" s="17"/>
+      <c r="AG109" s="17"/>
+      <c r="AH109" s="17"/>
+      <c r="AI109" s="17"/>
+    </row>
+    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A110" s="25"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="17"/>
+      <c r="J110" s="17"/>
+      <c r="K110" s="17"/>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
+      <c r="R110" s="17"/>
+      <c r="S110" s="17"/>
+      <c r="T110" s="17"/>
+      <c r="U110" s="17"/>
+      <c r="V110" s="17"/>
+      <c r="W110" s="17"/>
+      <c r="X110" s="17"/>
+      <c r="Y110" s="17"/>
+      <c r="Z110" s="17"/>
+      <c r="AA110" s="17"/>
+      <c r="AB110" s="17"/>
+      <c r="AC110" s="17"/>
+      <c r="AD110" s="17"/>
+      <c r="AE110" s="17"/>
+      <c r="AF110" s="17"/>
+      <c r="AG110" s="17"/>
+      <c r="AH110" s="17"/>
+      <c r="AI110" s="17"/>
+    </row>
+    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A111" s="25"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="17"/>
+      <c r="J111" s="17"/>
+      <c r="K111" s="17"/>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
+      <c r="R111" s="17"/>
+      <c r="S111" s="17"/>
+      <c r="T111" s="17"/>
+      <c r="U111" s="17"/>
+      <c r="V111" s="17"/>
+      <c r="W111" s="17"/>
+      <c r="X111" s="17"/>
+      <c r="Y111" s="17"/>
+      <c r="Z111" s="17"/>
+      <c r="AA111" s="17"/>
+      <c r="AB111" s="17"/>
+      <c r="AC111" s="17"/>
+      <c r="AD111" s="17"/>
+      <c r="AE111" s="17"/>
+      <c r="AF111" s="17"/>
+      <c r="AG111" s="17"/>
+      <c r="AH111" s="17"/>
+      <c r="AI111" s="17"/>
+    </row>
+    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A112" s="25"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="17"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="17"/>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
+      <c r="R112" s="17"/>
+      <c r="S112" s="17"/>
+      <c r="T112" s="17"/>
+      <c r="U112" s="17"/>
+      <c r="V112" s="17"/>
+      <c r="W112" s="17"/>
+      <c r="X112" s="17"/>
+      <c r="Y112" s="17"/>
+      <c r="Z112" s="17"/>
+      <c r="AA112" s="17"/>
+      <c r="AB112" s="17"/>
+      <c r="AC112" s="17"/>
+      <c r="AD112" s="17"/>
+      <c r="AE112" s="17"/>
+      <c r="AF112" s="17"/>
+      <c r="AG112" s="17"/>
+      <c r="AH112" s="17"/>
+      <c r="AI112" s="17"/>
     </row>
     <row r="113" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A113" s="23"/>
-      <c r="B113" s="24"/>
-      <c r="C113" s="25"/>
-      <c r="D113" s="25"/>
-      <c r="E113" s="25"/>
-      <c r="F113" s="25"/>
-      <c r="G113" s="25"/>
-      <c r="H113" s="25"/>
-      <c r="I113" s="25"/>
-      <c r="J113" s="25"/>
-      <c r="K113" s="25"/>
-      <c r="L113" s="25"/>
-      <c r="M113" s="25"/>
-      <c r="N113" s="25"/>
-      <c r="O113" s="25"/>
-      <c r="P113" s="25"/>
-      <c r="Q113" s="25"/>
-      <c r="R113" s="25"/>
-      <c r="S113" s="25"/>
-      <c r="T113" s="25"/>
-      <c r="U113" s="25"/>
-      <c r="V113" s="25"/>
-      <c r="W113" s="25"/>
-      <c r="X113" s="25"/>
-      <c r="Y113" s="25"/>
-      <c r="Z113" s="25"/>
-      <c r="AA113" s="25"/>
-      <c r="AB113" s="25"/>
-      <c r="AC113" s="25"/>
-      <c r="AD113" s="25"/>
-      <c r="AE113" s="25"/>
-      <c r="AF113" s="25"/>
-      <c r="AG113" s="25"/>
-      <c r="AH113" s="25"/>
-      <c r="AI113" s="25"/>
+      <c r="A113" s="25"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="17"/>
+      <c r="K113" s="17"/>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
+      <c r="R113" s="17"/>
+      <c r="S113" s="17"/>
+      <c r="T113" s="17"/>
+      <c r="U113" s="17"/>
+      <c r="V113" s="17"/>
+      <c r="W113" s="17"/>
+      <c r="X113" s="17"/>
+      <c r="Y113" s="17"/>
+      <c r="Z113" s="17"/>
+      <c r="AA113" s="17"/>
+      <c r="AB113" s="17"/>
+      <c r="AC113" s="17"/>
+      <c r="AD113" s="17"/>
+      <c r="AE113" s="17"/>
+      <c r="AF113" s="17"/>
+      <c r="AG113" s="17"/>
+      <c r="AH113" s="17"/>
+      <c r="AI113" s="17"/>
     </row>
     <row r="114" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A114" s="23"/>
-      <c r="B114" s="24"/>
-      <c r="C114" s="25"/>
-      <c r="D114" s="25"/>
-      <c r="E114" s="25"/>
-      <c r="F114" s="25"/>
-      <c r="G114" s="25"/>
-      <c r="H114" s="25"/>
-      <c r="I114" s="25"/>
-      <c r="J114" s="25"/>
-      <c r="K114" s="25"/>
-      <c r="L114" s="25"/>
-      <c r="M114" s="25"/>
-      <c r="N114" s="25"/>
-      <c r="O114" s="25"/>
-      <c r="P114" s="25"/>
-      <c r="Q114" s="25"/>
-      <c r="R114" s="25"/>
-      <c r="S114" s="25"/>
-      <c r="T114" s="25"/>
-      <c r="U114" s="25"/>
-      <c r="V114" s="25"/>
-      <c r="W114" s="25"/>
-      <c r="X114" s="25"/>
-      <c r="Y114" s="25"/>
-      <c r="Z114" s="25"/>
-      <c r="AA114" s="25"/>
-      <c r="AB114" s="25"/>
-      <c r="AC114" s="25"/>
-      <c r="AD114" s="25"/>
-      <c r="AE114" s="25"/>
-      <c r="AF114" s="25"/>
-      <c r="AG114" s="25"/>
-      <c r="AH114" s="25"/>
-      <c r="AI114" s="25"/>
+      <c r="A114" s="25"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="17"/>
+      <c r="I114" s="17"/>
+      <c r="J114" s="17"/>
+      <c r="K114" s="17"/>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
+      <c r="R114" s="17"/>
+      <c r="S114" s="17"/>
+      <c r="T114" s="17"/>
+      <c r="U114" s="17"/>
+      <c r="V114" s="17"/>
+      <c r="W114" s="17"/>
+      <c r="X114" s="17"/>
+      <c r="Y114" s="17"/>
+      <c r="Z114" s="17"/>
+      <c r="AA114" s="17"/>
+      <c r="AB114" s="17"/>
+      <c r="AC114" s="17"/>
+      <c r="AD114" s="17"/>
+      <c r="AE114" s="17"/>
+      <c r="AF114" s="17"/>
+      <c r="AG114" s="17"/>
+      <c r="AH114" s="17"/>
+      <c r="AI114" s="17"/>
     </row>
     <row r="115" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A115" s="23"/>
-      <c r="B115" s="24"/>
-      <c r="C115" s="25"/>
-      <c r="D115" s="25"/>
-      <c r="E115" s="25"/>
-      <c r="F115" s="25"/>
-      <c r="G115" s="25"/>
-      <c r="H115" s="25"/>
-      <c r="I115" s="25"/>
-      <c r="J115" s="25"/>
-      <c r="K115" s="25"/>
-      <c r="L115" s="25"/>
-      <c r="M115" s="25"/>
-      <c r="N115" s="25"/>
-      <c r="O115" s="25"/>
-      <c r="P115" s="25"/>
-      <c r="Q115" s="25"/>
-      <c r="R115" s="25"/>
-      <c r="S115" s="25"/>
-      <c r="T115" s="25"/>
-      <c r="U115" s="25"/>
-      <c r="V115" s="25"/>
-      <c r="W115" s="25"/>
-      <c r="X115" s="25"/>
-      <c r="Y115" s="25"/>
-      <c r="Z115" s="25"/>
-      <c r="AA115" s="25"/>
-      <c r="AB115" s="25"/>
-      <c r="AC115" s="25"/>
-      <c r="AD115" s="25"/>
-      <c r="AE115" s="25"/>
-      <c r="AF115" s="25"/>
-      <c r="AG115" s="25"/>
-      <c r="AH115" s="25"/>
-      <c r="AI115" s="25"/>
+      <c r="A115" s="25"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="17"/>
+      <c r="I115" s="17"/>
+      <c r="J115" s="17"/>
+      <c r="K115" s="17"/>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
+      <c r="R115" s="17"/>
+      <c r="S115" s="17"/>
+      <c r="T115" s="17"/>
+      <c r="U115" s="17"/>
+      <c r="V115" s="17"/>
+      <c r="W115" s="17"/>
+      <c r="X115" s="17"/>
+      <c r="Y115" s="17"/>
+      <c r="Z115" s="17"/>
+      <c r="AA115" s="17"/>
+      <c r="AB115" s="17"/>
+      <c r="AC115" s="17"/>
+      <c r="AD115" s="17"/>
+      <c r="AE115" s="17"/>
+      <c r="AF115" s="17"/>
+      <c r="AG115" s="17"/>
+      <c r="AH115" s="17"/>
+      <c r="AI115" s="17"/>
     </row>
     <row r="116" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A116" s="23"/>
-      <c r="B116" s="24"/>
-      <c r="C116" s="25"/>
-      <c r="D116" s="25"/>
-      <c r="E116" s="25"/>
-      <c r="F116" s="25"/>
-      <c r="G116" s="25"/>
-      <c r="H116" s="25"/>
-      <c r="I116" s="25"/>
-      <c r="J116" s="25"/>
-      <c r="K116" s="25"/>
-      <c r="L116" s="25"/>
-      <c r="M116" s="25"/>
-      <c r="N116" s="25"/>
-      <c r="O116" s="25"/>
-      <c r="P116" s="25"/>
-      <c r="Q116" s="25"/>
-      <c r="R116" s="25"/>
-      <c r="S116" s="25"/>
-      <c r="T116" s="25"/>
-      <c r="U116" s="25"/>
-      <c r="V116" s="25"/>
-      <c r="W116" s="25"/>
-      <c r="X116" s="25"/>
-      <c r="Y116" s="25"/>
-      <c r="Z116" s="25"/>
-      <c r="AA116" s="25"/>
-      <c r="AB116" s="25"/>
-      <c r="AC116" s="25"/>
-      <c r="AD116" s="25"/>
-      <c r="AE116" s="25"/>
-      <c r="AF116" s="25"/>
-      <c r="AG116" s="25"/>
-      <c r="AH116" s="25"/>
-      <c r="AI116" s="25"/>
+      <c r="A116" s="25"/>
+      <c r="B116" s="16"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="17"/>
+      <c r="I116" s="17"/>
+      <c r="J116" s="17"/>
+      <c r="K116" s="17"/>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
+      <c r="R116" s="17"/>
+      <c r="S116" s="17"/>
+      <c r="T116" s="17"/>
+      <c r="U116" s="17"/>
+      <c r="V116" s="17"/>
+      <c r="W116" s="17"/>
+      <c r="X116" s="17"/>
+      <c r="Y116" s="17"/>
+      <c r="Z116" s="17"/>
+      <c r="AA116" s="17"/>
+      <c r="AB116" s="17"/>
+      <c r="AC116" s="17"/>
+      <c r="AD116" s="17"/>
+      <c r="AE116" s="17"/>
+      <c r="AF116" s="17"/>
+      <c r="AG116" s="17"/>
+      <c r="AH116" s="17"/>
+      <c r="AI116" s="17"/>
     </row>
     <row r="117" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A117" s="23"/>
-      <c r="B117" s="24"/>
-      <c r="C117" s="25"/>
-      <c r="D117" s="25"/>
-      <c r="E117" s="25"/>
-      <c r="F117" s="25"/>
-      <c r="G117" s="25"/>
-      <c r="H117" s="25"/>
-      <c r="I117" s="25"/>
-      <c r="J117" s="25"/>
-      <c r="K117" s="25"/>
-      <c r="L117" s="25"/>
-      <c r="M117" s="25"/>
-      <c r="N117" s="25"/>
-      <c r="O117" s="25"/>
-      <c r="P117" s="25"/>
-      <c r="Q117" s="25"/>
-      <c r="R117" s="25"/>
-      <c r="S117" s="25"/>
-      <c r="T117" s="25"/>
-      <c r="U117" s="25"/>
-      <c r="V117" s="25"/>
-      <c r="W117" s="25"/>
-      <c r="X117" s="25"/>
-      <c r="Y117" s="25"/>
-      <c r="Z117" s="25"/>
-      <c r="AA117" s="25"/>
-      <c r="AB117" s="25"/>
-      <c r="AC117" s="25"/>
-      <c r="AD117" s="25"/>
-      <c r="AE117" s="25"/>
-      <c r="AF117" s="25"/>
-      <c r="AG117" s="25"/>
-      <c r="AH117" s="25"/>
-      <c r="AI117" s="25"/>
+      <c r="A117" s="25"/>
+      <c r="B117" s="16"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="17"/>
+      <c r="I117" s="17"/>
+      <c r="J117" s="17"/>
+      <c r="K117" s="17"/>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
+      <c r="R117" s="17"/>
+      <c r="S117" s="17"/>
+      <c r="T117" s="17"/>
+      <c r="U117" s="17"/>
+      <c r="V117" s="17"/>
+      <c r="W117" s="17"/>
+      <c r="X117" s="17"/>
+      <c r="Y117" s="17"/>
+      <c r="Z117" s="17"/>
+      <c r="AA117" s="17"/>
+      <c r="AB117" s="17"/>
+      <c r="AC117" s="17"/>
+      <c r="AD117" s="17"/>
+      <c r="AE117" s="17"/>
+      <c r="AF117" s="17"/>
+      <c r="AG117" s="17"/>
+      <c r="AH117" s="17"/>
+      <c r="AI117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A98:A102"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="A108:A112"/>
-    <mergeCell ref="A113:A117"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="A88:A92"/>
+  <mergeCells count="45">
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A58:A62"/>
     <mergeCell ref="A63:A67"/>
     <mergeCell ref="A33:A37"/>
@@ -5676,13 +5812,16 @@
     <mergeCell ref="A43:A47"/>
     <mergeCell ref="A48:A52"/>
     <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="A108:A112"/>
+    <mergeCell ref="A113:A117"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
